--- a/5th edition/Sources.xlsx
+++ b/5th edition/Sources.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawn/Documents/Games/Dawn_Brewery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SHARED/Games/Matutinal-Forge/5th edition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1DB49F-EED6-B346-89CF-070275D35AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3CE58-AA30-9D4B-884F-5CAF308FC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$D$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$D$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -364,13 +364,34 @@
   </si>
   <si>
     <t>Critical Role: Call of the Netherdeep</t>
+  </si>
+  <si>
+    <t>Dragonlance: Shadow of the Dragon Queen</t>
+  </si>
+  <si>
+    <t>Dragonlance</t>
+  </si>
+  <si>
+    <t>Bigby Presents: Glory of the Giants</t>
+  </si>
+  <si>
+    <t>The Book of Many Things</t>
+  </si>
+  <si>
+    <t>Chains of Asmodeus</t>
+  </si>
+  <si>
+    <t>Journey through the Radiant Citadel</t>
+  </si>
+  <si>
+    <t>Keys from the Golden Vault</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -427,171 +448,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -633,93 +489,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,92 +507,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,1021 +811,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="86.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="5"/>
-    <col min="7" max="7" width="8.83203125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="86.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
         <v>2014</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>2016</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>2017</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>2018</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>2020</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>2021</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>2022</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D17" s="3">
         <v>2015</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D18" s="3">
         <v>2018</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
         <v>2019</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
         <v>2019</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7">
         <v>2020</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D23" s="7">
         <v>2021</v>
       </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D26" s="3">
         <v>2015</v>
       </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="20">
+      <c r="B27" s="7"/>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7">
         <v>2017</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7">
         <v>2018</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="C31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="B32" s="7"/>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
         <v>2019</v>
       </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" s="6" customFormat="1">
+      <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="C37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="20">
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7">
         <v>2014</v>
       </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="8" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D42" s="7">
         <v>2015</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="8" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D44" s="7">
         <v>2016</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="8" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D46" s="3">
         <v>2017</v>
       </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="20">
+      <c r="B47" s="7"/>
+      <c r="C47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="7">
         <v>2018</v>
       </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="B49" s="7"/>
+      <c r="C49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3">
         <v>2019</v>
       </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="B50" s="7"/>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="3">
         <v>2020</v>
       </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1">
+      <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="31">
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
         <v>2021</v>
       </c>
-      <c r="E48" s="33"/>
-    </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="C52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="8">
         <v>2022</v>
       </c>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B55" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="3">
         <v>2014</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E55" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="B56" s="7"/>
+      <c r="C56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3">
         <v>2018</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3">
         <v>2018</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E57" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="20">
+      <c r="C58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="7">
         <v>2019</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E58" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="22"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="22"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="10" t="s">
+      <c r="C62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="10" t="s">
+      <c r="C63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B64" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="20">
+      <c r="C64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="7">
         <v>2020</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E64" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="10" t="s">
+      <c r="C68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="C69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="27">
+      <c r="C70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7">
         <v>2021</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E70" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="22" t="s">
+      <c r="C71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+    <row r="72" spans="1:5" s="6" customFormat="1">
+      <c r="A72" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="22"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="22"/>
-    </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="26"/>
-    </row>
-    <row r="71" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="C76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3">
         <v>2017</v>
       </c>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="6">
+      <c r="C77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="3">
         <v>2019</v>
       </c>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B78" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="13">
+      <c r="C78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3">
         <v>2021</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E80" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E64">
-    <sortCondition ref="D3:D64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E68">
+    <sortCondition ref="D3:D68"/>
   </sortState>
-  <mergeCells count="32">
+  <mergeCells count="36">
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E64:E67"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5th edition/Sources.xlsx
+++ b/5th edition/Sources.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SHARED/Games/Matutinal-Forge/5th edition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DWNGRD/Games/Matutinal-Forge/5th edition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3CE58-AA30-9D4B-884F-5CAF308FC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C20FA-510A-344F-9648-6F28734975B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$D$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$D$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -336,12 +336,6 @@
     <t>CORE</t>
   </si>
   <si>
-    <t>WORLD GUIDE</t>
-  </si>
-  <si>
-    <t>SUPPLEMENT</t>
-  </si>
-  <si>
     <t>Domains of Delight</t>
   </si>
   <si>
@@ -385,6 +379,51 @@
   </si>
   <si>
     <t>Keys from the Golden Vault</t>
+  </si>
+  <si>
+    <t>Planescape</t>
+  </si>
+  <si>
+    <t>Spelljammer</t>
+  </si>
+  <si>
+    <t>Spelljammer: Adventures in Space</t>
+  </si>
+  <si>
+    <t>Light of Xaryxis</t>
+  </si>
+  <si>
+    <t>Boo's Astral Menagerie</t>
+  </si>
+  <si>
+    <t>CAMPAIGN SETTINGS</t>
+  </si>
+  <si>
+    <t>Planescape: Adventures in the Multiverse</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>ERftLW</t>
+  </si>
+  <si>
+    <t>EGtW</t>
+  </si>
+  <si>
+    <t>MOoT</t>
+  </si>
+  <si>
+    <t>SACoC</t>
+  </si>
+  <si>
+    <t>SAiC</t>
+  </si>
+  <si>
+    <t>PAitM</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTS</t>
   </si>
 </sst>
 </file>
@@ -429,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -489,11 +528,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +589,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -524,12 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -822,48 +910,46 @@
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="8.83203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <v>2014</v>
       </c>
       <c r="E3" s="3"/>
@@ -872,1052 +958,1155 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2016</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2024</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2017</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2018</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2023</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2018</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2020</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="3">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2018</v>
+        <v>117</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2023</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3">
-        <v>2019</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7">
-        <v>2020</v>
+      <c r="D21" s="13">
+        <v>2017</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2021</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="13">
+        <v>2018</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2015</v>
+        <v>20</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2019</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" s="5" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7">
-        <v>2017</v>
-      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="7">
-        <v>2018</v>
+      <c r="D30" s="14">
+        <v>2021</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>2022</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="3">
+        <v>2023</v>
+      </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2015</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" s="6" customFormat="1">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="8">
-        <v>2021</v>
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2018</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2019</v>
+      </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D38" s="3">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" s="6" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2014</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D40" s="13"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2021</v>
+      </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2015</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D42" s="13"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2022</v>
+      </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2016</v>
+        <v>130</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2023</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="C46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2017</v>
+        <v>20</v>
+      </c>
+      <c r="D46" s="13">
+        <v>2014</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="7">
-        <v>2018</v>
-      </c>
+      <c r="D47" s="13"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="13"/>
       <c r="C48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2015</v>
+      </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2019</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2020</v>
+        <v>31</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2016</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" s="6" customFormat="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2021</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D51" s="13"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="8">
-        <v>2022</v>
+        <v>36</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2017</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="13">
+        <v>2018</v>
+      </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>2019</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1">
       <c r="A56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="3">
-        <v>2018</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="7">
-        <v>2019</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="D58" s="14">
+        <v>2022</v>
+      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="A60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="C61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="D61" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B62" s="13"/>
       <c r="C62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="3">
+        <v>2018</v>
+      </c>
       <c r="E62" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="3">
+        <v>2018</v>
+      </c>
       <c r="E63" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>110</v>
+        <v>54</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>22</v>
+      <c r="D64" s="13">
+        <v>2019</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="B66" s="13"/>
       <c r="C66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="B67" s="13"/>
       <c r="C67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="3"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="7">
-        <v>2021</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>74</v>
+      <c r="D70" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B71" s="13"/>
       <c r="C71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="6" customFormat="1">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="13"/>
       <c r="C72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B73" s="13"/>
       <c r="C73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="A75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="D76" s="13">
+        <v>2021</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="6" customFormat="1">
       <c r="A77" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="3">
-        <v>2019</v>
-      </c>
-      <c r="E77" s="3"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>77</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B78" s="13"/>
       <c r="C78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="3">
-        <v>2021</v>
-      </c>
-      <c r="E78" s="3"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="B79" s="13"/>
       <c r="C79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E79" s="3"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="3">
         <v>2023</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E87" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E68">
-    <sortCondition ref="D3:D68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E74">
+    <sortCondition ref="D3:D74"/>
   </sortState>
-  <mergeCells count="36">
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D14:D15"/>
+  <mergeCells count="38">
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="D64:D69"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A60:E60"/>
     <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D76:D80"/>
     <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E70:E73"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D50:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
